--- a/v2/lysaker_ttg2.xlsx
+++ b/v2/lysaker_ttg2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weyhak\OneDrive - Bane NOR\Dokumenter\GitHub\atsim\v2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{A75DBDC4-D0C6-402B-AE1A-F65D0EB6E232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balisegrupper" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -808,8 +814,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,34 +852,42 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N270" totalsRowShown="0">
-  <autoFilter ref="A1:N270"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N270" totalsRowShown="0">
+  <autoFilter ref="A1:N270" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Retning"/>
-    <tableColumn id="2" name="Sign./Type"/>
-    <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="ID_sted"/>
-    <tableColumn id="5" name="ID_type"/>
-    <tableColumn id="6" name="KM_prosjektert"/>
-    <tableColumn id="7" name="KM_simulering"/>
-    <tableColumn id="8" name="Segment"/>
-    <tableColumn id="9" name="Rang"/>
-    <tableColumn id="10" name="X-ord"/>
-    <tableColumn id="11" name="Y-ord"/>
-    <tableColumn id="12" name="Z-ord"/>
-    <tableColumn id="13" name="Tegning"/>
-    <tableColumn id="14" name="Rad nr."/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Retning"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sign./Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID_sted"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ID_type"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="KM_prosjektert"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="KM_simulering"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Segment"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Rang"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="X-ord"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Y-ord"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Z-ord"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Tegning"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Rad nr."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -915,7 +929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -947,9 +961,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -981,6 +1013,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1156,14 +1206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +1339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1330,7 +1380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1453,7 +1503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +1626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1658,7 +1708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1740,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1822,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1904,7 +1954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1945,7 +1995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1986,7 +2036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2027,7 +2077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2068,7 +2118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2109,7 +2159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2150,7 +2200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2232,7 +2282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2273,7 +2323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +2364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2355,7 +2405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2396,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2437,7 +2487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2478,7 +2528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2519,7 +2569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2560,7 +2610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2601,7 +2651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2642,7 +2692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2683,7 +2733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2724,7 +2774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2765,7 +2815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2806,7 +2856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2847,7 +2897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2888,7 +2938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2929,7 +2979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2970,7 +3020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3011,7 +3061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3052,7 +3102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3093,7 +3143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3134,7 +3184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3175,7 +3225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3216,7 +3266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3257,7 +3307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -3298,7 +3348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -3339,7 +3389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3380,7 +3430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -3421,7 +3471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -3462,7 +3512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -3503,7 +3553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -3544,7 +3594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3585,7 +3635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -3626,7 +3676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3708,7 +3758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3749,7 +3799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3790,7 +3840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3831,7 +3881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3872,7 +3922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3913,7 +3963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3954,7 +4004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3995,7 +4045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -4036,7 +4086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -4077,7 +4127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -4118,7 +4168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -4159,7 +4209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -4200,7 +4250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -4241,7 +4291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -4282,7 +4332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -4323,7 +4373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -4364,7 +4414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -4405,7 +4455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -4446,7 +4496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4487,7 +4537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4528,7 +4578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4569,7 +4619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4610,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -4651,7 +4701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -4692,7 +4742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -4733,7 +4783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -4774,7 +4824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -4815,7 +4865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -4856,7 +4906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -4897,7 +4947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -4938,7 +4988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -4979,7 +5029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -5020,7 +5070,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -5061,7 +5111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -5102,7 +5152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -5143,7 +5193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -5184,7 +5234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -5225,7 +5275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -5266,7 +5316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -5307,7 +5357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -5348,7 +5398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -5389,7 +5439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -5430,7 +5480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -5471,7 +5521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -5512,7 +5562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -5553,7 +5603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -5594,7 +5644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -5635,7 +5685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -5676,7 +5726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -5717,7 +5767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -5758,7 +5808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -5799,7 +5849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -5840,7 +5890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -5881,7 +5931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -5922,7 +5972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -5963,7 +6013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -6004,7 +6054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -6045,7 +6095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -6086,7 +6136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -6127,7 +6177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -6168,7 +6218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -6209,7 +6259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -6250,7 +6300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -6291,7 +6341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -6332,7 +6382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -6373,7 +6423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -6414,7 +6464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -6455,7 +6505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -6496,7 +6546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -6537,7 +6587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -6578,7 +6628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -6619,7 +6669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -6660,7 +6710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -6701,7 +6751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -6742,7 +6792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -6783,7 +6833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -6824,7 +6874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -6865,7 +6915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -6906,7 +6956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -6947,7 +6997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -6988,7 +7038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -7029,7 +7079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -7070,7 +7120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -7111,7 +7161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -7152,7 +7202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -7193,7 +7243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -7234,7 +7284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -7275,7 +7325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -7316,7 +7366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -7357,7 +7407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -7398,7 +7448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -7439,7 +7489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -7480,7 +7530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -7521,7 +7571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -7562,7 +7612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -7603,7 +7653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -7644,7 +7694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -7685,7 +7735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -7726,7 +7776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -7767,7 +7817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -7808,7 +7858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -7849,7 +7899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -7890,7 +7940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -7931,7 +7981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -7972,7 +8022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -8013,7 +8063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -8054,7 +8104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -8095,7 +8145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -8136,7 +8186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -8177,7 +8227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -8218,7 +8268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -8259,7 +8309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -8300,7 +8350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -8341,7 +8391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -8382,7 +8432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -8423,7 +8473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -8464,7 +8514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -8505,7 +8555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -8546,7 +8596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -8587,7 +8637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -8628,7 +8678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -8669,7 +8719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -8710,7 +8760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -8751,7 +8801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -8792,7 +8842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -8833,7 +8883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -8874,7 +8924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -8915,7 +8965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -8956,7 +9006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -8997,7 +9047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -9038,7 +9088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>20</v>
       </c>
@@ -9079,7 +9129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>20</v>
       </c>
@@ -9120,7 +9170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -9161,7 +9211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -9202,7 +9252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -9243,7 +9293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -9284,7 +9334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -9325,7 +9375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -9366,7 +9416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -9407,7 +9457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -9448,7 +9498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -9489,7 +9539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>20</v>
       </c>
@@ -9530,7 +9580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -9571,7 +9621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -9612,7 +9662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -9653,7 +9703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>20</v>
       </c>
@@ -9694,7 +9744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -9735,7 +9785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -9776,7 +9826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>20</v>
       </c>
@@ -9817,7 +9867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>20</v>
       </c>
@@ -9858,7 +9908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -9899,7 +9949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -9940,7 +9990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -9981,7 +10031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -10022,7 +10072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -10063,7 +10113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -10104,7 +10154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -10145,7 +10195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -10186,7 +10236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -10227,7 +10277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -10268,7 +10318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -10309,7 +10359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -10350,7 +10400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -10391,7 +10441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -10432,7 +10482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -10473,7 +10523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -10514,7 +10564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -10555,7 +10605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -10596,7 +10646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -10637,7 +10687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -10678,7 +10728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -10719,7 +10769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -10760,7 +10810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -10801,7 +10851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>20</v>
       </c>
@@ -10842,7 +10892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>20</v>
       </c>
@@ -10883,7 +10933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -10924,7 +10974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>20</v>
       </c>
@@ -10965,7 +11015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -11006,7 +11056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -11047,7 +11097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -11088,7 +11138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -11129,7 +11179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -11170,7 +11220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -11211,7 +11261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -11252,7 +11302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -11293,7 +11343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -11334,7 +11384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -11375,7 +11425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -11416,7 +11466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -11457,7 +11507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -11498,7 +11548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -11539,7 +11589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -11580,7 +11630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -11621,7 +11671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -11662,7 +11712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -11703,7 +11753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -11744,7 +11794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -11785,7 +11835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -11826,7 +11876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -11867,7 +11917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -11908,7 +11958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -11949,7 +11999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -11990,7 +12040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -12031,7 +12081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -12072,7 +12122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -12113,7 +12163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -12154,7 +12204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -12195,7 +12245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>14</v>
       </c>
